--- a/media/test_imports/sample_contacts_with_extra_field_max_fields.xlsx
+++ b/media/test_imports/sample_contacts_with_extra_field_max_fields.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norkans7/nyaruka/rapidpro/media/test_imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norbert/nyaruka/rapidpro/media/test_imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9D0DC-1D25-484A-9850-5A11978EC956}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="5280" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="1800" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -798,12 +796,15 @@
   </si>
   <si>
     <t>Nic Pottier</t>
+  </si>
+  <si>
+    <t>URN:Tel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -875,6 +876,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1142,788 +1146,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GF1" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GG1" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GH1" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GI1" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GJ1" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GK1" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GL1" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GM1" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GN1" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GO1" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GP1" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GQ1" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GR1" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GS1" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GT1" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GU1" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GX1" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GY1" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="GZ1" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HA1" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HC1" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HD1" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HE1" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HF1" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HG1" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HH1" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HI1" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HJ1" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HK1" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HL1" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HM1" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HN1" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HO1" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HP1" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HQ1" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HR1" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HS1" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HT1" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="HU1" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="HV1" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HW1" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HX1" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HY1" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="HZ1" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="IA1" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IB1" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IC1" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="ID1" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IG1" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IH1" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="II1" t="s">
         <v>241</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IJ1" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IL1" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IM1" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IN1" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IO1" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IP1" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IQ1" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IR1" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IS1" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IT1" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IU1" t="s">
         <v>253</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:255" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C2">
         <v>1</v>
